--- a/data/trans_orig/P50A_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P50A_1-Provincia-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7218</v>
+        <v>6689</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006825415430128737</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0250123220977366</v>
+        <v>0.02317667873531556</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7219</v>
+        <v>6494</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003526121139480845</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01292276529632997</v>
+        <v>0.01162436250547122</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5085</v>
+        <v>5251</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00315675323001917</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01761987111844465</v>
+        <v>0.01819461521066832</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -826,19 +826,19 @@
         <v>6460</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2189</v>
+        <v>2216</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13646</v>
+        <v>13028</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0239223960545849</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008105548870051351</v>
+        <v>0.008207992874504714</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0505352277711016</v>
+        <v>0.04824513796680988</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -847,19 +847,19 @@
         <v>7371</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3024</v>
+        <v>3139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14240</v>
+        <v>14058</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01319452565780396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005414184394957071</v>
+        <v>0.005619117131772033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02549082572060408</v>
+        <v>0.02516616569577877</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>16043</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8759</v>
+        <v>8803</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26187</v>
+        <v>26112</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05559073616071873</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0303519386426094</v>
+        <v>0.03050256602044141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09074106025350544</v>
+        <v>0.09047838757072003</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -897,19 +897,19 @@
         <v>6011</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2036</v>
+        <v>2028</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13181</v>
+        <v>11643</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02226144519707673</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00754000901160381</v>
+        <v>0.0075103635843764</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04881381449000811</v>
+        <v>0.04311603195010951</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -918,19 +918,19 @@
         <v>22054</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13253</v>
+        <v>13694</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35129</v>
+        <v>33599</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03947990151433409</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02372436415254258</v>
+        <v>0.02451318705098647</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06288550882848136</v>
+        <v>0.06014610176718409</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>269671</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>258740</v>
+        <v>258647</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>277549</v>
+        <v>277476</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9344270951791334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8965501488652604</v>
+        <v>0.8962270673141064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9617244404707884</v>
+        <v>0.9614725703829251</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>228</v>
@@ -968,19 +968,19 @@
         <v>257559</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>248911</v>
+        <v>249140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>263717</v>
+        <v>262957</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9538161587483384</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9217910098662299</v>
+        <v>0.92263959536232</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9766200982935239</v>
+        <v>0.9738047922155969</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>487</v>
@@ -989,19 +989,19 @@
         <v>527229</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>513249</v>
+        <v>513791</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>537522</v>
+        <v>537204</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9437994516883811</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9187736088760663</v>
+        <v>0.9197429808459264</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9622244817779591</v>
+        <v>0.9616549937870453</v>
       </c>
     </row>
     <row r="8">
@@ -1093,19 +1093,19 @@
         <v>19878</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12740</v>
+        <v>12611</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30568</v>
+        <v>31270</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04005288118309241</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02566938639367366</v>
+        <v>0.02540980761087138</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06159271176158088</v>
+        <v>0.0630076261545859</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1114,19 +1114,19 @@
         <v>7106</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3030</v>
+        <v>3050</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14393</v>
+        <v>14222</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01407684969451175</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006001806100084362</v>
+        <v>0.006041759055717998</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02851131417321269</v>
+        <v>0.02817263203922978</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -1135,19 +1135,19 @@
         <v>26984</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18021</v>
+        <v>18088</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>38309</v>
+        <v>37964</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02695424154146379</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01800114895208447</v>
+        <v>0.01806812784247992</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03826646910666039</v>
+        <v>0.03792184615585761</v>
       </c>
     </row>
     <row r="10">
@@ -1164,19 +1164,19 @@
         <v>4903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10730</v>
+        <v>10841</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009878615567650182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003851833681656503</v>
+        <v>0.003869229373199919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02162076613079517</v>
+        <v>0.02184320416423488</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1185,19 +1185,19 @@
         <v>7064</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3031</v>
+        <v>3005</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13876</v>
+        <v>14025</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01399317106666937</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006003693285387078</v>
+        <v>0.005952020686590934</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02748627714956037</v>
+        <v>0.02778224940822161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1206,19 +1206,19 @@
         <v>11967</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6097</v>
+        <v>6016</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20016</v>
+        <v>20026</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01195341593855467</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006089796426876693</v>
+        <v>0.006009482029120832</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01999412036198179</v>
+        <v>0.02000418066494855</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>3951</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9789</v>
+        <v>9861</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007960886253844012</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001955416575554589</v>
+        <v>0.001962033804755989</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01972388692823768</v>
+        <v>0.01986934909287305</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1256,19 +1256,19 @@
         <v>4055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1036</v>
+        <v>999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9230</v>
+        <v>9777</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008033424661017296</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002052049518940243</v>
+        <v>0.001978498606540691</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01828454687915048</v>
+        <v>0.01936690889582436</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1277,19 +1277,19 @@
         <v>8006</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3840</v>
+        <v>3966</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15655</v>
+        <v>14906</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007997464376108696</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003835482062225218</v>
+        <v>0.003961640545747672</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01563785509976253</v>
+        <v>0.01488966136379132</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>467561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>455865</v>
+        <v>455398</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>476748</v>
+        <v>476228</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9421076169954133</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9185407659302069</v>
+        <v>0.9175990087638417</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9606179962839076</v>
+        <v>0.9595700259713705</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>444</v>
@@ -1327,19 +1327,19 @@
         <v>486594</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>476177</v>
+        <v>477083</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>493477</v>
+        <v>493778</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9638965545778015</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9432618873414353</v>
+        <v>0.9450551788759542</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9775297769679639</v>
+        <v>0.9781267919741317</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>879</v>
@@ -1348,19 +1348,19 @@
         <v>954157</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>940196</v>
+        <v>939882</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>965872</v>
+        <v>965826</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9530948781438728</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9391500199413864</v>
+        <v>0.9388363757171583</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9647971197606769</v>
+        <v>0.9647510797202772</v>
       </c>
     </row>
     <row r="13">
@@ -1452,19 +1452,19 @@
         <v>5791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1974</v>
+        <v>1944</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11254</v>
+        <v>11636</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01809632900787825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006168458600129881</v>
+        <v>0.006074150063280899</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03516953122384347</v>
+        <v>0.03636375960365811</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1473,19 +1473,19 @@
         <v>3967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>979</v>
+        <v>1045</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9121</v>
+        <v>10020</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01189833446825572</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002936416153182712</v>
+        <v>0.003134395860404009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02735723053401556</v>
+        <v>0.03005413814772132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1494,19 +1494,19 @@
         <v>9758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4855</v>
+        <v>4782</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17543</v>
+        <v>17662</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01493379805820358</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007429959852625517</v>
+        <v>0.007317910327789718</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02684953258985291</v>
+        <v>0.02703175232374127</v>
       </c>
     </row>
     <row r="15">
@@ -1523,19 +1523,19 @@
         <v>9778</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4728</v>
+        <v>4903</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17137</v>
+        <v>16908</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03055737710263598</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01477347256529521</v>
+        <v>0.01532099765501076</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05355424713762413</v>
+        <v>0.05283634922076158</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -1544,19 +1544,19 @@
         <v>5997</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2042</v>
+        <v>2065</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12473</v>
+        <v>11889</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01798780573407243</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.006124880939139769</v>
+        <v>0.00619499718186375</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03741267466809494</v>
+        <v>0.03566135932801855</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -1565,19 +1565,19 @@
         <v>15775</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9075</v>
+        <v>9083</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>23801</v>
+        <v>24814</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0241437447215323</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01388957418792804</v>
+        <v>0.01390163012393458</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0364272346223823</v>
+        <v>0.03797649283137825</v>
       </c>
     </row>
     <row r="16">
@@ -1594,19 +1594,19 @@
         <v>17416</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10244</v>
+        <v>10608</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26735</v>
+        <v>26838</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05442433765932043</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03201179131343571</v>
+        <v>0.03315114045872349</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08354526250097516</v>
+        <v>0.08386796942066961</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1615,19 +1615,19 @@
         <v>8174</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3890</v>
+        <v>3905</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16420</v>
+        <v>15994</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02451634221695884</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01166916880413955</v>
+        <v>0.01171360010783886</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04925014482417139</v>
+        <v>0.0479717340163571</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1636,19 +1636,19 @@
         <v>25589</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17714</v>
+        <v>16374</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38186</v>
+        <v>36033</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03916376254513875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02711048231533265</v>
+        <v>0.02505977867731978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05844168488779132</v>
+        <v>0.05514730074888378</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>287016</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>275949</v>
+        <v>276500</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>297355</v>
+        <v>296684</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8969219562301654</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8623381227272527</v>
+        <v>0.8640610185942386</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9292329369186834</v>
+        <v>0.9271361482368992</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>292</v>
@@ -1686,19 +1686,19 @@
         <v>315258</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>305816</v>
+        <v>305637</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>322093</v>
+        <v>322300</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.945597517580713</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.917274275866567</v>
+        <v>0.9167381768986834</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9660967158934406</v>
+        <v>0.9667169112110905</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>573</v>
@@ -1707,19 +1707,19 @@
         <v>602274</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>586417</v>
+        <v>588714</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>614838</v>
+        <v>614589</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9217586946751254</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8974888249270353</v>
+        <v>0.9010046944976968</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9409868436351266</v>
+        <v>0.9406052361146837</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>8466</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3127</v>
+        <v>3215</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16754</v>
+        <v>16423</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02306902268836828</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008522108690295817</v>
+        <v>0.008759325827529156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04565325642068331</v>
+        <v>0.04475055171018389</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1832,19 +1832,19 @@
         <v>3819</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9589</v>
+        <v>10484</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009971867053191263</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002477648533460013</v>
+        <v>0.002451584599236101</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02503786848620197</v>
+        <v>0.02737477107502601</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1853,19 +1853,19 @@
         <v>12285</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6279</v>
+        <v>6084</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21872</v>
+        <v>21028</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01638076702637392</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008372904068003466</v>
+        <v>0.008112673290280183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02916385144919999</v>
+        <v>0.0280381225996103</v>
       </c>
     </row>
     <row r="20">
@@ -1882,19 +1882,19 @@
         <v>2837</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7584</v>
+        <v>7509</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007730964713665498</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002476252654739362</v>
+        <v>0.002513912663565597</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02066502197110854</v>
+        <v>0.0204609496329871</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1903,19 +1903,19 @@
         <v>2850</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7654</v>
+        <v>8229</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007442078541710343</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002425346560503274</v>
+        <v>0.002438460433266037</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01998491418452244</v>
+        <v>0.02148656859139254</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1924,19 +1924,19 @@
         <v>5687</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2780</v>
+        <v>1935</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12379</v>
+        <v>11478</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007583440729903597</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003706930122882258</v>
+        <v>0.002579696404825217</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01650550360334514</v>
+        <v>0.01530484756761096</v>
       </c>
     </row>
     <row r="21">
@@ -1953,19 +1953,19 @@
         <v>6053</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2083</v>
+        <v>1953</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14998</v>
+        <v>14338</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01649410543680625</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005676714831781973</v>
+        <v>0.005321089284854509</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04086818228845503</v>
+        <v>0.03906896333084146</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1974,19 +1974,19 @@
         <v>5853</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1911</v>
+        <v>2050</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12971</v>
+        <v>13869</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01528145849990893</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00499004835530001</v>
+        <v>0.005351599655440828</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03386919358590752</v>
+        <v>0.03621389050628364</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -1995,19 +1995,19 @@
         <v>11906</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5848</v>
+        <v>5883</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21521</v>
+        <v>23478</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01587484939621069</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.007797892593608651</v>
+        <v>0.007843685224170477</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02869628323354602</v>
+        <v>0.03130486465330853</v>
       </c>
     </row>
     <row r="22">
@@ -2024,19 +2024,19 @@
         <v>349629</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>337910</v>
+        <v>338565</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>357420</v>
+        <v>356910</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.95270590716116</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9207720441664135</v>
+        <v>0.9225594219266294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9739362881618869</v>
+        <v>0.972545351266775</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>353</v>
@@ -2045,19 +2045,19 @@
         <v>370460</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>361978</v>
+        <v>361909</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>377081</v>
+        <v>376298</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9673045959051895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9451558466391607</v>
+        <v>0.9449774362634334</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.984592490039118</v>
+        <v>0.9825465875719855</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>675</v>
@@ -2066,19 +2066,19 @@
         <v>720089</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>706712</v>
+        <v>706244</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>730189</v>
+        <v>730385</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9601609428475117</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9423243048644624</v>
+        <v>0.9417006908079936</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9736276626072649</v>
+        <v>0.9738891746433799</v>
       </c>
     </row>
     <row r="23">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7729</v>
+        <v>7665</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01034966797964931</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03673083314120165</v>
+        <v>0.03642725285109735</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2191,19 +2191,19 @@
         <v>2984</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7994</v>
+        <v>8280</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01425431968920098</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004685469369077153</v>
+        <v>0.004676627455102577</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03818454207454265</v>
+        <v>0.03955157973839612</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -2212,19 +2212,19 @@
         <v>5162</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2014</v>
+        <v>1985</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11621</v>
+        <v>10854</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01229699281143158</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004798184991189557</v>
+        <v>0.004728029167031304</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02768266933206553</v>
+        <v>0.02585610211831715</v>
       </c>
     </row>
     <row r="25">
@@ -2241,19 +2241,19 @@
         <v>7153</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3010</v>
+        <v>3014</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14079</v>
+        <v>13483</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03399211135139373</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01430508401684028</v>
+        <v>0.0143240795293085</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06690621011540086</v>
+        <v>0.06407425755062938</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4893</v>
+        <v>5001</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004733113133721998</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02337398885006077</v>
+        <v>0.02388861560982825</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2283,19 +2283,19 @@
         <v>8144</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3538</v>
+        <v>4002</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15526</v>
+        <v>15280</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01940008675596898</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008428789504738295</v>
+        <v>0.009534409456984923</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03698515232926807</v>
+        <v>0.03640035590883255</v>
       </c>
     </row>
     <row r="26">
@@ -2312,19 +2312,19 @@
         <v>8198</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3949</v>
+        <v>3914</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15459</v>
+        <v>15721</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03895744554509064</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01876401773602849</v>
+        <v>0.01859907868565423</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07346307568798487</v>
+        <v>0.07470858405893886</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5866</v>
+        <v>6617</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009211109287974667</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02801855422066483</v>
+        <v>0.03160626836917413</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -2354,19 +2354,19 @@
         <v>10126</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5142</v>
+        <v>5029</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17582</v>
+        <v>17476</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02412237610565064</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01224972535642845</v>
+        <v>0.01198016489632473</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0418837198567213</v>
+        <v>0.04163022173085944</v>
       </c>
     </row>
     <row r="27">
@@ -2383,19 +2383,19 @@
         <v>192901</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>183205</v>
+        <v>183599</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>200012</v>
+        <v>199549</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9167007751238663</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8706216703628761</v>
+        <v>0.8724927695813049</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9504900712997441</v>
+        <v>0.9482924156386773</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>196</v>
@@ -2404,19 +2404,19 @@
         <v>203451</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>196777</v>
+        <v>197386</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>207381</v>
+        <v>207366</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9718014578891023</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9399184359547196</v>
+        <v>0.9428268914564304</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9905707604123311</v>
+        <v>0.9904990218543032</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>373</v>
@@ -2425,19 +2425,19 @@
         <v>396352</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>385455</v>
+        <v>385910</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>404466</v>
+        <v>403826</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9441805443269488</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.91822137227546</v>
+        <v>0.919306065573242</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9635100533868992</v>
+        <v>0.9619845367932118</v>
       </c>
     </row>
     <row r="28">
@@ -2529,19 +2529,19 @@
         <v>13777</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6820</v>
+        <v>7830</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23472</v>
+        <v>22499</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05111635856338866</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02530420412246258</v>
+        <v>0.02905266069828737</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08708560135711438</v>
+        <v>0.08347496573340067</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2550,19 +2550,19 @@
         <v>5956</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2869</v>
+        <v>1990</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12297</v>
+        <v>11985</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02217265241523646</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01067964805233486</v>
+        <v>0.007409183046781263</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04577929536961087</v>
+        <v>0.04461804245487117</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -2571,19 +2571,19 @@
         <v>19733</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12708</v>
+        <v>11904</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>30936</v>
+        <v>29579</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03666901290505341</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02361373267389867</v>
+        <v>0.0221206951141899</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05748635275752295</v>
+        <v>0.05496500721908086</v>
       </c>
     </row>
     <row r="30">
@@ -2600,19 +2600,19 @@
         <v>9868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4849</v>
+        <v>4908</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17014</v>
+        <v>16933</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03661302884958248</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01799018067119767</v>
+        <v>0.01820840285882734</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06312640799763844</v>
+        <v>0.06282459302819274</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2621,19 +2621,19 @@
         <v>8811</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4842</v>
+        <v>3954</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15852</v>
+        <v>16563</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03280211077869925</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01802685040968494</v>
+        <v>0.01472065943335791</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05901196210333857</v>
+        <v>0.06165940382566115</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>19</v>
@@ -2642,19 +2642,19 @@
         <v>18679</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>11813</v>
+        <v>11553</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>27593</v>
+        <v>28540</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03471079662113785</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02195086201738944</v>
+        <v>0.02146854820389337</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05127518513122599</v>
+        <v>0.05303463019412255</v>
       </c>
     </row>
     <row r="31">
@@ -2671,19 +2671,19 @@
         <v>12504</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6958</v>
+        <v>6825</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21726</v>
+        <v>21026</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04639171692734601</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02581706912000709</v>
+        <v>0.02532318003255563</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08060616339110571</v>
+        <v>0.07801050358272793</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -2692,19 +2692,19 @@
         <v>7882</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3870</v>
+        <v>3836</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15959</v>
+        <v>14616</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02934423481690239</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01440623610910337</v>
+        <v>0.01428053819818887</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05941171562919661</v>
+        <v>0.05441104753448267</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -2713,19 +2713,19 @@
         <v>20386</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>12992</v>
+        <v>12457</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31039</v>
+        <v>30854</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03788241043448732</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02414244995910698</v>
+        <v>0.0231476231701752</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05767828075312815</v>
+        <v>0.05733330733995853</v>
       </c>
     </row>
     <row r="32">
@@ -2742,19 +2742,19 @@
         <v>233378</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>220032</v>
+        <v>222396</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>244322</v>
+        <v>243576</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8658788956596828</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8163624964149022</v>
+        <v>0.8251345931258298</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9064855096654822</v>
+        <v>0.9037172785604287</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>235</v>
@@ -2763,19 +2763,19 @@
         <v>245967</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>235097</v>
+        <v>233953</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>253048</v>
+        <v>253437</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9156810019891619</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8752162233881465</v>
+        <v>0.8709559096868948</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9420433330893615</v>
+        <v>0.9434912909096276</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>457</v>
@@ -2784,19 +2784,19 @@
         <v>479344</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>463703</v>
+        <v>463022</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>491369</v>
+        <v>492679</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8907377800393215</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8616733126922786</v>
+        <v>0.8604061921777252</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9130824198870988</v>
+        <v>0.9155175090492126</v>
       </c>
     </row>
     <row r="33">
@@ -2888,19 +2888,19 @@
         <v>6197</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2654</v>
+        <v>2535</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12162</v>
+        <v>11975</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009444158967398614</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.004044669333270058</v>
+        <v>0.003863363244830008</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01853545078309372</v>
+        <v>0.01825123471075275</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2909,19 +2909,19 @@
         <v>4845</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1885</v>
+        <v>975</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13328</v>
+        <v>12682</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007134232963078048</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002775340083486618</v>
+        <v>0.001435692099875268</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01962586232136557</v>
+        <v>0.01867437970610054</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>11</v>
@@ -2930,19 +2930,19 @@
         <v>11041</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5805</v>
+        <v>5539</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>19599</v>
+        <v>19969</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008269339235904088</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004347581783460153</v>
+        <v>0.004148602320583219</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01467798941599396</v>
+        <v>0.01495529029275671</v>
       </c>
     </row>
     <row r="35">
@@ -2959,19 +2959,19 @@
         <v>10582</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5584</v>
+        <v>5295</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17879</v>
+        <v>19279</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01612713463112337</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.008511140889758498</v>
+        <v>0.008070672088194437</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0272484145858153</v>
+        <v>0.02938314897856192</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -2980,19 +2980,19 @@
         <v>6038</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2069</v>
+        <v>2038</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12956</v>
+        <v>12958</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.008891600615912707</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003046121109633647</v>
+        <v>0.003001705377286417</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01907793182377125</v>
+        <v>0.01908182420536024</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>17</v>
@@ -3001,19 +3001,19 @@
         <v>16620</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10530</v>
+        <v>9942</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>26243</v>
+        <v>26328</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01244716907678537</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007886540199321994</v>
+        <v>0.007445733679928122</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01965459944116995</v>
+        <v>0.01971788866455462</v>
       </c>
     </row>
     <row r="36">
@@ -3030,19 +3030,19 @@
         <v>20380</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12621</v>
+        <v>12491</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>31476</v>
+        <v>32566</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03106026019288984</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01923455881412539</v>
+        <v>0.01903772179421901</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04797226578315043</v>
+        <v>0.04963230534767671</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -3051,19 +3051,19 @@
         <v>7978</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3892</v>
+        <v>3950</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>14862</v>
+        <v>15036</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01174743102804108</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.005731841335313318</v>
+        <v>0.005816020621422964</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02188441935873053</v>
+        <v>0.02214136707483324</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>27</v>
@@ -3072,19 +3072,19 @@
         <v>28357</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>18906</v>
+        <v>19092</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>41584</v>
+        <v>40655</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02123782746932693</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01415898661659361</v>
+        <v>0.0142988343853571</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03114370160428788</v>
+        <v>0.03044759321027726</v>
       </c>
     </row>
     <row r="37">
@@ -3101,19 +3101,19 @@
         <v>618981</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>605496</v>
+        <v>606151</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>629837</v>
+        <v>629336</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9433684462085882</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9228166988377585</v>
+        <v>0.9238150926975415</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9599134358072102</v>
+        <v>0.9591505407448671</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>605</v>
@@ -3122,19 +3122,19 @@
         <v>660234</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>650803</v>
+        <v>649292</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>667840</v>
+        <v>668022</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9722267353929681</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9583392836713949</v>
+        <v>0.9561137499281694</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9834270048546592</v>
+        <v>0.983694951854345</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1180</v>
@@ -3143,19 +3143,19 @@
         <v>1279214</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1261566</v>
+        <v>1263305</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1292138</v>
+        <v>1292599</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9580456642179837</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9448284143367521</v>
+        <v>0.9461304768873077</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9677249408347769</v>
+        <v>0.9680702852756963</v>
       </c>
     </row>
     <row r="38">
@@ -3247,19 +3247,19 @@
         <v>14624</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>8117</v>
+        <v>8346</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>23957</v>
+        <v>23091</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0195377212710807</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0108442716046544</v>
+        <v>0.01115065412158461</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03200659311836548</v>
+        <v>0.03084975404011275</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>11</v>
@@ -3268,19 +3268,19 @@
         <v>12610</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>6355</v>
+        <v>7279</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>22236</v>
+        <v>22401</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01656163111578748</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.008346404770997996</v>
+        <v>0.009560376547453391</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0292044153161644</v>
+        <v>0.02942135399183293</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>25</v>
@@ -3289,19 +3289,19 @@
         <v>27233</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>18214</v>
+        <v>17885</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>41481</v>
+        <v>39783</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01803697273134472</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01206344013984032</v>
+        <v>0.01184537373433242</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02747336935508365</v>
+        <v>0.02634854487294023</v>
       </c>
     </row>
     <row r="40">
@@ -3318,19 +3318,19 @@
         <v>26928</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>17807</v>
+        <v>17809</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>40109</v>
+        <v>39447</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03597661808887927</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0237910443105317</v>
+        <v>0.02379293378726575</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05358699736596683</v>
+        <v>0.05270262465420959</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>13</v>
@@ -3339,19 +3339,19 @@
         <v>13892</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7549</v>
+        <v>7517</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>23986</v>
+        <v>22931</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01824602308249994</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.009915140830576354</v>
+        <v>0.009872603408251789</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03150400614531679</v>
+        <v>0.03011710722771354</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>37</v>
@@ -3360,19 +3360,19 @@
         <v>40820</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>28625</v>
+        <v>29265</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>55642</v>
+        <v>54971</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02703563741423566</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01895866250845938</v>
+        <v>0.01938226184151963</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0368524805025336</v>
+        <v>0.03640798338036454</v>
       </c>
     </row>
     <row r="41">
@@ -3389,19 +3389,19 @@
         <v>12551</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7214</v>
+        <v>6813</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22896</v>
+        <v>20582</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01676894224050894</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.009638699074027758</v>
+        <v>0.009101696345840314</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0305896015600315</v>
+        <v>0.0274984654412852</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>12</v>
@@ -3410,19 +3410,19 @@
         <v>12398</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>6329</v>
+        <v>6301</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>20804</v>
+        <v>20687</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01628375110102036</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.008313133210632748</v>
+        <v>0.008276316642157458</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02732375154110298</v>
+        <v>0.02717061395608184</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>24</v>
@@ -3431,19 +3431,19 @@
         <v>24949</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>16245</v>
+        <v>16417</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>38244</v>
+        <v>36499</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01652427562891949</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01075951648787706</v>
+        <v>0.01087290232834513</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02532926573559418</v>
+        <v>0.02417359764098987</v>
       </c>
     </row>
     <row r="42">
@@ -3460,19 +3460,19 @@
         <v>694386</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>677081</v>
+        <v>679688</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>707927</v>
+        <v>707350</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9277167183995311</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9045976936061918</v>
+        <v>0.9080805612980956</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9458080343845695</v>
+        <v>0.9450373294585173</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>664</v>
@@ -3481,19 +3481,19 @@
         <v>722479</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>709668</v>
+        <v>708943</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>734191</v>
+        <v>733803</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9489085947006922</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9320819388206718</v>
+        <v>0.9311305409459618</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9642907536801473</v>
+        <v>0.963781668341618</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1305</v>
@@ -3502,19 +3502,19 @@
         <v>1416865</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1395278</v>
+        <v>1396664</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1435007</v>
+        <v>1434713</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9384031142255002</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9241057725611483</v>
+        <v>0.9250241808365588</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9504187930813651</v>
+        <v>0.9502239758423379</v>
       </c>
     </row>
     <row r="43">
@@ -3606,19 +3606,19 @@
         <v>72880</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>56600</v>
+        <v>57249</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>93032</v>
+        <v>90758</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02171340909887982</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01686297499514861</v>
+        <v>0.01705637277193886</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02771732790563288</v>
+        <v>0.02703966180502753</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>39</v>
@@ -3627,19 +3627,19 @@
         <v>41287</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>29400</v>
+        <v>30277</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>55559</v>
+        <v>58134</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01210873328162763</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008622653760502925</v>
+        <v>0.008879723897195929</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01629451895406284</v>
+        <v>0.0170498752797974</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>109</v>
@@ -3648,19 +3648,19 @@
         <v>114167</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>93924</v>
+        <v>94451</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>136021</v>
+        <v>136816</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01687330238178529</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01388149517211777</v>
+        <v>0.01395936706123263</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02010321497366082</v>
+        <v>0.02022078414995938</v>
       </c>
     </row>
     <row r="45">
@@ -3677,19 +3677,19 @@
         <v>72960</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>58020</v>
+        <v>56711</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>91811</v>
+        <v>90929</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.02173724148704625</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01728599865363804</v>
+        <v>0.01689619007666913</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02735360481423071</v>
+        <v>0.0270908520041035</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>51</v>
@@ -3698,19 +3698,19 @@
         <v>52103</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>38518</v>
+        <v>39253</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>67525</v>
+        <v>67635</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0152810842131668</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01129657511719369</v>
+        <v>0.01151229784309171</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.01980393785316765</v>
+        <v>0.01983636014947548</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>122</v>
@@ -3719,19 +3719,19 @@
         <v>125064</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>104820</v>
+        <v>104273</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>149025</v>
+        <v>148665</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.01848377507313635</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.01549180808672622</v>
+        <v>0.0154110302557988</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.02202516508999753</v>
+        <v>0.02197196622273516</v>
       </c>
     </row>
     <row r="46">
@@ -3748,19 +3748,19 @@
         <v>97096</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>78635</v>
+        <v>77108</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>118819</v>
+        <v>118572</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02892807322355203</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02342793216745951</v>
+        <v>0.02297298839097553</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03540009675011888</v>
+        <v>0.03532653324696285</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>53</v>
@@ -3769,19 +3769,19 @@
         <v>54279</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>39215</v>
+        <v>41015</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>69958</v>
+        <v>70724</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01591921479149345</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01150124619962822</v>
+        <v>0.01202910671197018</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02051738348929891</v>
+        <v>0.0207422206116163</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>145</v>
@@ -3790,19 +3790,19 @@
         <v>151375</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>127155</v>
+        <v>129169</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>178302</v>
+        <v>176906</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02237248881063094</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01879283410414363</v>
+        <v>0.01909050985742674</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02635215906669771</v>
+        <v>0.02614584548587452</v>
       </c>
     </row>
     <row r="47">
@@ -3819,19 +3819,19 @@
         <v>3113523</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3080722</v>
+        <v>3081053</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3143227</v>
+        <v>3143703</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9276212761905219</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9178489265455688</v>
+        <v>0.9179475696008591</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9364712924673427</v>
+        <v>0.9366130594839742</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3017</v>
@@ -3840,19 +3840,19 @@
         <v>3262002</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3237071</v>
+        <v>3237947</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3283634</v>
+        <v>3285766</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9566909677137121</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.949379112281715</v>
+        <v>0.9496360469461345</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9630352187863002</v>
+        <v>0.9636604673991941</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5929</v>
@@ -3861,19 +3861,19 @@
         <v>6375525</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6333612</v>
+        <v>6339048</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6414265</v>
+        <v>6414669</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9422704337344474</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9360758194385109</v>
+        <v>0.9368792168294743</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9479960038514166</v>
+        <v>0.9480556542536008</v>
       </c>
     </row>
     <row r="48">
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7141</v>
+        <v>6963</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007160216719187062</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02460084267644471</v>
+        <v>0.02398903199927814</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7365</v>
+        <v>7152</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003600750813976755</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01275879340031549</v>
+        <v>0.01238970742650821</v>
       </c>
     </row>
     <row r="5">
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7735</v>
+        <v>7638</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006864414919408791</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02664822441543193</v>
+        <v>0.02631169780591703</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7110</v>
+        <v>6003</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003451997136106467</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01231780957796286</v>
+        <v>0.01040060576257133</v>
       </c>
     </row>
     <row r="6">
@@ -4335,19 +4335,19 @@
         <v>8702</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3847</v>
+        <v>3819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16414</v>
+        <v>17949</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02997905683500501</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01325405758261508</v>
+        <v>0.01315550727669371</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05654500304736377</v>
+        <v>0.06183318016484223</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6198</v>
+        <v>7140</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006160929029008925</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02159940448605478</v>
+        <v>0.02488175551990298</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -4377,19 +4377,19 @@
         <v>10470</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4605</v>
+        <v>4909</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18852</v>
+        <v>19481</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01813865909617649</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00797759718084998</v>
+        <v>0.008504062663932211</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0326596439697695</v>
+        <v>0.03375014232813156</v>
       </c>
     </row>
     <row r="7">
@@ -4406,19 +4406,19 @@
         <v>277503</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>268944</v>
+        <v>269139</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>283619</v>
+        <v>283438</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9559963115263992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.926510431561264</v>
+        <v>0.9271815682605248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9770651891636881</v>
+        <v>0.9764441659499992</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>273</v>
@@ -4427,7 +4427,7 @@
         <v>285180</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>280750</v>
+        <v>279808</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>286948</v>
@@ -4436,7 +4436,7 @@
         <v>0.9938390709709911</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9784005955139452</v>
+        <v>0.9751182444800973</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -4448,19 +4448,19 @@
         <v>562683</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>552333</v>
+        <v>553160</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>569141</v>
+        <v>569921</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9748085929537403</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9568782834889652</v>
+        <v>0.9583101866256662</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9859963901761374</v>
+        <v>0.9873488802052074</v>
       </c>
     </row>
     <row r="8">
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5052</v>
+        <v>4590</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002043414646423596</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01027828915694467</v>
+        <v>0.009339912825180915</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5033</v>
+        <v>6937</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001038162814999535</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005203143694507673</v>
+        <v>0.007171060357159625</v>
       </c>
     </row>
     <row r="10">
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5925</v>
+        <v>4394</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002276906987568041</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01244990437871911</v>
+        <v>0.009232156966357782</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4925</v>
+        <v>4945</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00200359336138334</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01002136404324841</v>
+        <v>0.0100610308628917</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7764</v>
+        <v>6392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002138049196745092</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008025864806153526</v>
+        <v>0.006607103822634426</v>
       </c>
     </row>
     <row r="11">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5057</v>
+        <v>4274</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002215458937123933</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01062509136112834</v>
+        <v>0.008979859800222239</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -4707,19 +4707,19 @@
         <v>2974</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8011</v>
+        <v>8019</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006050601369190277</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001992252339243504</v>
+        <v>0.001987946214524227</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01629881201950373</v>
+        <v>0.01631507196750142</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -4728,19 +4728,19 @@
         <v>4028</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1005</v>
+        <v>1037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9291</v>
+        <v>10006</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00416391431800643</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001038549832693389</v>
+        <v>0.00107159584276853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009604432035143213</v>
+        <v>0.01034343694350656</v>
       </c>
     </row>
     <row r="12">
@@ -4757,7 +4757,7 @@
         <v>473769</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>468402</v>
+        <v>469560</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>475907</v>
@@ -4766,7 +4766,7 @@
         <v>0.9955076340753081</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9842297612235029</v>
+        <v>0.986662873674938</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -4778,19 +4778,19 @@
         <v>486524</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>480540</v>
+        <v>480555</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>489534</v>
+        <v>489523</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9899023906230028</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9777261460600338</v>
+        <v>0.9777565309566263</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9960254271345295</v>
+        <v>0.9960034944190557</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>898</v>
@@ -4799,19 +4799,19 @@
         <v>960293</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>953652</v>
+        <v>954061</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>964353</v>
+        <v>964351</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.992659873670249</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9857943167154229</v>
+        <v>0.9862172374991134</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9968562427175419</v>
+        <v>0.9968542729359394</v>
       </c>
     </row>
     <row r="13">
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4569</v>
+        <v>4656</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002930979370425374</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01455675114725397</v>
+        <v>0.01483311193084936</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4640</v>
+        <v>5211</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001431669419347038</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.007221524559887615</v>
+        <v>0.008109529982160187</v>
       </c>
     </row>
     <row r="16">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5020</v>
+        <v>5005</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003033031425442079</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01527209630145367</v>
+        <v>0.01522801847698521</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5057</v>
+        <v>4687</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001551513546626787</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007870956507922119</v>
+        <v>0.007294079241054306</v>
       </c>
     </row>
     <row r="17">
@@ -5076,7 +5076,7 @@
         <v>312940</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>309291</v>
+        <v>309204</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>313860</v>
@@ -5085,7 +5085,7 @@
         <v>0.9970690206295746</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.985443248852746</v>
+        <v>0.9851668880691506</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5097,7 +5097,7 @@
         <v>327692</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>323669</v>
+        <v>323684</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>328689</v>
@@ -5106,7 +5106,7 @@
         <v>0.9969669685745579</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9847279036985462</v>
+        <v>0.9847719815230148</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5118,7 +5118,7 @@
         <v>640633</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>636288</v>
+        <v>635668</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>642550</v>
@@ -5127,7 +5127,7 @@
         <v>0.9970168170340262</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9902549943625417</v>
+        <v>0.9892897657673944</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -5238,16 +5238,16 @@
         <v>907</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7857</v>
+        <v>8842</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00769965453810533</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002378181096758443</v>
+        <v>0.002378896550334434</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02060574319721935</v>
+        <v>0.02318771475501402</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -5256,19 +5256,19 @@
         <v>2936</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7965</v>
+        <v>8971</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003927267543225263</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001213968437196763</v>
+        <v>0.001212948624136542</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01065473950391107</v>
+        <v>0.01200056694668924</v>
       </c>
     </row>
     <row r="20">
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5919</v>
+        <v>6651</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005279292760309571</v>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01616111969349942</v>
+        <v>0.01815886631882323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6287</v>
+        <v>6345</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004888383879436912</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01648681674249351</v>
+        <v>0.01664069581195203</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -5327,19 +5327,19 @@
         <v>3798</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>997</v>
+        <v>940</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10532</v>
+        <v>9540</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005079906703102454</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001333549531298153</v>
+        <v>0.001257014648987194</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01408839471934571</v>
+        <v>0.01276151442817727</v>
       </c>
     </row>
     <row r="21">
@@ -5356,19 +5356,19 @@
         <v>3826</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9469</v>
+        <v>8716</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01044526590036641</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002624125098785775</v>
+        <v>0.002628231034975917</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02585295090102316</v>
+        <v>0.02379678478646197</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5799</v>
+        <v>4870</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002310466236607366</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01520761058542868</v>
+        <v>0.01277135069496063</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -5398,19 +5398,19 @@
         <v>4707</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1838</v>
+        <v>979</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10619</v>
+        <v>10207</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006296049265774118</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002458044308887077</v>
+        <v>0.001309542784420757</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01420470258353741</v>
+        <v>0.0136531186711786</v>
       </c>
     </row>
     <row r="22">
@@ -5427,19 +5427,19 @@
         <v>360510</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>353820</v>
+        <v>355084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>363486</v>
+        <v>364331</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.984275441339324</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9660121697160625</v>
+        <v>0.9694636217187619</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9924016795541406</v>
+        <v>0.9947093897428571</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>346</v>
@@ -5448,19 +5448,19 @@
         <v>375626</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>369582</v>
+        <v>369015</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>379358</v>
+        <v>379376</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9851014953458503</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9692516214198202</v>
+        <v>0.9677624589928637</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9948885168000161</v>
+        <v>0.9949365928388312</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>690</v>
@@ -5469,19 +5469,19 @@
         <v>736136</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>728344</v>
+        <v>727588</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>741009</v>
+        <v>741059</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9846967764878982</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9742740385191593</v>
+        <v>0.9732631748666586</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9912159030704503</v>
+        <v>0.9912823249857755</v>
       </c>
     </row>
     <row r="23">
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10576</v>
+        <v>10452</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01084976947269173</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04112308539297373</v>
+        <v>0.04064244092298008</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -5857,19 +5857,19 @@
         <v>4302</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1253</v>
+        <v>1439</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10910</v>
+        <v>11734</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01602552370998137</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004666436595937405</v>
+        <v>0.005358576806417974</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04063650444483558</v>
+        <v>0.04370758080901149</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -5878,19 +5878,19 @@
         <v>7093</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2758</v>
+        <v>2784</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14339</v>
+        <v>15424</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01349326562212594</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005246101150541641</v>
+        <v>0.005295866547889985</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02727861817536979</v>
+        <v>0.02934288174468035</v>
       </c>
     </row>
     <row r="30">
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4771</v>
+        <v>4856</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003686842284097245</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01855210626843795</v>
+        <v>0.01888278266484147</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5279</v>
+        <v>5175</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003443946470740397</v>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01966376801441256</v>
+        <v>0.01927684980899149</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7484</v>
+        <v>5719</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003562784201374453</v>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01423819547838298</v>
+        <v>0.01087929660130754</v>
       </c>
     </row>
     <row r="32">
@@ -6025,19 +6025,19 @@
         <v>253439</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>245417</v>
+        <v>244981</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>256229</v>
+        <v>256227</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.985463388243211</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9542746542458647</v>
+        <v>0.9525763736848565</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9963153830690482</v>
+        <v>0.996307531464663</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>254</v>
@@ -6046,19 +6046,19 @@
         <v>263248</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>256224</v>
+        <v>256580</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>266595</v>
+        <v>266608</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9805305298192782</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9543671496320375</v>
+        <v>0.9556951011982036</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9929978776252109</v>
+        <v>0.9930476484273821</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>504</v>
@@ -6067,19 +6067,19 @@
         <v>516686</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>509043</v>
+        <v>509019</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>521662</v>
+        <v>521809</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9829439501764996</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9684031710124376</v>
+        <v>0.9683569764754285</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9924088029262146</v>
+        <v>0.9926897620567756</v>
       </c>
     </row>
     <row r="33">
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5364</v>
+        <v>5394</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.00166526898624583</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.008302389659845137</v>
+        <v>0.008348715648587612</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4672</v>
+        <v>6005</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001538109939563009</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.007145288083803273</v>
+        <v>0.009184233655926563</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7332</v>
+        <v>7323</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001601307305889958</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.005640137795578292</v>
+        <v>0.00563356877284352</v>
       </c>
     </row>
     <row r="35">
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5274</v>
+        <v>4231</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.001619884701711002</v>
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.008162810004624984</v>
+        <v>0.006549198250896538</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5884</v>
+        <v>6262</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0008050740358002523</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.004526640276114128</v>
+        <v>0.004817118704109826</v>
       </c>
     </row>
     <row r="36">
@@ -6305,19 +6305,19 @@
         <v>25528</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16287</v>
+        <v>15623</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>37594</v>
+        <v>37215</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03951223834275105</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0252084735261301</v>
+        <v>0.02418125208176217</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05818831982440322</v>
+        <v>0.05760199507270201</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -6326,19 +6326,19 @@
         <v>10763</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5205</v>
+        <v>5313</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>19250</v>
+        <v>18737</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01646042167869115</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.007960604507609093</v>
+        <v>0.008125153383668045</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02943891618267664</v>
+        <v>0.02865480200362922</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>33</v>
@@ -6347,19 +6347,19 @@
         <v>36291</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>25313</v>
+        <v>24397</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>48706</v>
+        <v>49418</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02791705131082478</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01947218437469045</v>
+        <v>0.01876780084771579</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0374672080052565</v>
+        <v>0.03801500705986384</v>
       </c>
     </row>
     <row r="37">
@@ -6376,19 +6376,19 @@
         <v>618425</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>604816</v>
+        <v>606177</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>627876</v>
+        <v>628407</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9572026079692921</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9361386437670254</v>
+        <v>0.9382462771988669</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9718316799703879</v>
+        <v>0.9726527935841058</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>602</v>
@@ -6397,19 +6397,19 @@
         <v>642120</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>633572</v>
+        <v>633785</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>647714</v>
+        <v>647780</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9820014683817458</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9689290129466616</v>
+        <v>0.9692540701123739</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9905568195833889</v>
+        <v>0.9906580660141285</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1146</v>
@@ -6418,19 +6418,19 @@
         <v>1260545</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1247063</v>
+        <v>1246662</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1272101</v>
+        <v>1272429</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.969676567347485</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9593057034191911</v>
+        <v>0.9589971307885884</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9785660410221005</v>
+        <v>0.9788184318524211</v>
       </c>
     </row>
     <row r="38">
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>5443</v>
+        <v>7750</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.001382848479498439</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.006938180494679379</v>
+        <v>0.009879822617749032</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5460</v>
+        <v>6005</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0007028831271918608</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.003538130437853199</v>
+        <v>0.003890868837712762</v>
       </c>
     </row>
     <row r="40">
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6147</v>
+        <v>6661</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001606099888433438</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.00810086376213532</v>
+        <v>0.008778084771019689</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6115</v>
+        <v>7326</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0007897410979359802</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.003962109488940181</v>
+        <v>0.004746782583712869</v>
       </c>
     </row>
     <row r="41">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6351</v>
+        <v>6450</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.002426875768652081</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.008368692399240001</v>
+        <v>0.008499225165884552</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4353</v>
+        <v>6120</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001375189930906066</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.005548893231752965</v>
+        <v>0.007801317252629027</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -6690,19 +6690,19 @@
         <v>2920</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>8474</v>
+        <v>7877</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.001892318120856551</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0005937926709856098</v>
+        <v>0.0005941073880994615</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.005490480860448695</v>
+        <v>0.00510396154846413</v>
       </c>
     </row>
     <row r="42">
@@ -6719,19 +6719,19 @@
         <v>755805</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>749901</v>
+        <v>750362</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>757949</v>
+        <v>757948</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9959670243429145</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9881876557464514</v>
+        <v>0.9887946611958658</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9987925618968365</v>
+        <v>0.9987910884726747</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>717</v>
@@ -6740,7 +6740,7 @@
         <v>782278</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>776039</v>
+        <v>776850</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>784442</v>
@@ -6749,7 +6749,7 @@
         <v>0.9972419615895955</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9892880712577887</v>
+        <v>0.9903215809705952</v>
       </c>
       <c r="P42" s="6" t="n">
         <v>1</v>
@@ -6761,19 +6761,19 @@
         <v>1538084</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1531821</v>
+        <v>1530544</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1541299</v>
+        <v>1541311</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9966150576540156</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9925568675413099</v>
+        <v>0.9917292318130444</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9986979785458799</v>
+        <v>0.9987058095431732</v>
       </c>
     </row>
     <row r="43">
@@ -6865,19 +6865,19 @@
         <v>5945</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1966</v>
+        <v>2076</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>13800</v>
+        <v>13082</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001791797644972946</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0005926349008013749</v>
+        <v>0.0006257089438777457</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.004159415514285202</v>
+        <v>0.003943077988335075</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>10</v>
@@ -6886,19 +6886,19 @@
         <v>10333</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5247</v>
+        <v>5302</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>18704</v>
+        <v>18961</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.003030337431054958</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.00153878379357481</v>
+        <v>0.00155494010270447</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.005485058592902414</v>
+        <v>0.005560394778751146</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>15</v>
@@ -6907,19 +6907,19 @@
         <v>16278</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>9016</v>
+        <v>9125</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>26789</v>
+        <v>26569</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.002419556523311209</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.001340119382165579</v>
+        <v>0.001356377277279773</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.003981878802300734</v>
+        <v>0.003949298937779891</v>
       </c>
     </row>
     <row r="45">
@@ -6936,19 +6936,19 @@
         <v>8195</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>3888</v>
+        <v>4055</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>15442</v>
+        <v>15932</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.002470120032702818</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.001171812928967304</v>
+        <v>0.001222145840767138</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.004654477200613514</v>
+        <v>0.004802272176171159</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>3</v>
@@ -6960,16 +6960,16 @@
         <v>924</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>8842</v>
+        <v>7409</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0008354198319530229</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0002710945872043272</v>
+        <v>0.0002710236954901022</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.00259290308095793</v>
+        <v>0.00217277852780847</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>11</v>
@@ -6978,19 +6978,19 @@
         <v>11044</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>6034</v>
+        <v>5850</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>19078</v>
+        <v>18894</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.001641565652800101</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0008969660472255072</v>
+        <v>0.0008695716154733825</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.00283583141737994</v>
+        <v>0.002808385125263952</v>
       </c>
     </row>
     <row r="46">
@@ -7007,19 +7007,19 @@
         <v>41900</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>28794</v>
+        <v>29173</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>56416</v>
+        <v>56747</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01262925387126182</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0086789589802699</v>
+        <v>0.008793270303462268</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01700466820095743</v>
+        <v>0.01710447917687481</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>19</v>
@@ -7028,19 +7028,19 @@
         <v>19386</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>11598</v>
+        <v>12186</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>28861</v>
+        <v>30066</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.005685245205615575</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00340139424166884</v>
+        <v>0.003573638999283495</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.008463771194224746</v>
+        <v>0.008817343345243147</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>57</v>
@@ -7049,19 +7049,19 @@
         <v>61286</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>47275</v>
+        <v>47068</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>79568</v>
+        <v>80333</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.009109655114642937</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.007027047100665106</v>
+        <v>0.006996259745821781</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01182707510118043</v>
+        <v>0.0119408049447257</v>
       </c>
     </row>
     <row r="47">
@@ -7078,19 +7078,19 @@
         <v>3261658</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3244184</v>
+        <v>3246140</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3276182</v>
+        <v>3275242</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9831088284510624</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9778418540884354</v>
+        <v>0.9784313482201006</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9874865286024649</v>
+        <v>0.987203099644047</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3186</v>
@@ -7099,19 +7099,19 @@
         <v>3377353</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3365037</v>
+        <v>3364636</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3387310</v>
+        <v>3387550</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9904489975313765</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9868373098160235</v>
+        <v>0.9867196767379277</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9933689594411859</v>
+        <v>0.9934393664171138</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6289</v>
@@ -7120,19 +7120,19 @@
         <v>6639011</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6618362</v>
+        <v>6615057</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6656704</v>
+        <v>6655471</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9868292227092458</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9837599273001675</v>
+        <v>0.9832687083505374</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9894591868829222</v>
+        <v>0.9892757816707595</v>
       </c>
     </row>
     <row r="48">
